--- a/src/test/resources/script/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/test/resources/script/db/data_init/2018-05-19-data-init.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFF8573F-B6B7-7B40-9E81-1F03C1B384E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId4"/>
-    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
-    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
-    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
-    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId5"/>
+    <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId6"/>
+    <sheet name="fd_object_shceme_field" sheetId="7" r:id="rId7"/>
+    <sheet name="fd_object_scheme" sheetId="8" r:id="rId8"/>
+    <sheet name="fd_page" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
-  <si>
-    <t>agile_lookup_type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="485">
   <si>
     <t>#type_code</t>
   </si>
@@ -128,7 +138,22 @@
     <t>issue状态颜色</t>
   </si>
   <si>
-    <t>agile_lookup_value</t>
+    <t>feedback_type_category</t>
+  </si>
+  <si>
+    <t>Feedback Type Category</t>
+  </si>
+  <si>
+    <t>反馈单类型类别</t>
+  </si>
+  <si>
+    <t>feedback_status_category</t>
+  </si>
+  <si>
+    <t>Feedback Status Category</t>
+  </si>
+  <si>
+    <t>反馈单状态类别</t>
   </si>
   <si>
     <t>#value_code</t>
@@ -155,6 +180,12 @@
     <t>完成</t>
   </si>
   <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
     <t>constraint_none</t>
   </si>
   <si>
@@ -422,6 +453,48 @@
     <t>无状态列颜色</t>
   </si>
   <si>
+    <t>column_color_prepare</t>
+  </si>
+  <si>
+    <t>#F67F5A</t>
+  </si>
+  <si>
+    <t>prepare列颜色</t>
+  </si>
+  <si>
+    <t>question_consultation</t>
+  </si>
+  <si>
+    <t>问题咨询</t>
+  </si>
+  <si>
+    <t>bug_report</t>
+  </si>
+  <si>
+    <t>缺陷报告</t>
+  </si>
+  <si>
+    <t>recommendation_and_opinion</t>
+  </si>
+  <si>
+    <t>建议与意见</t>
+  </si>
+  <si>
+    <t>待处理</t>
+  </si>
+  <si>
+    <t>处理中</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>已取消</t>
+  </si>
+  <si>
     <t>agile_quick_filter_field</t>
   </si>
   <si>
@@ -440,204 +513,1310 @@
     <t>assignee_id</t>
   </si>
   <si>
+    <t>priority_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>created_user</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>last_updated_user</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>story_points</t>
+  </si>
+  <si>
+    <t>remain_time</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>remaining_time</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>epic_id</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>sprint_id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>component_id</t>
+  </si>
+  <si>
+    <t>fix_version</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
+  </si>
+  <si>
+    <t>version_id</t>
+  </si>
+  <si>
+    <t>influence_version</t>
+  </si>
+  <si>
+    <t>影响的版本</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>priority_code</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>agile_message</t>
+  </si>
+  <si>
+    <t>#event</t>
+  </si>
+  <si>
+    <t>#notice_type</t>
+  </si>
+  <si>
+    <t>notice_name</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+  </si>
+  <si>
+    <t>issue_created</t>
+  </si>
+  <si>
+    <t>assigneer</t>
+  </si>
+  <si>
+    <t>当前处理人</t>
+  </si>
+  <si>
+    <t>project_owner</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>issue_assigneed</t>
+  </si>
+  <si>
+    <t>issue_solved</t>
+  </si>
+  <si>
+    <t>agile_work_calendar_holiday_ref</t>
+  </si>
+  <si>
+    <t>#holiday</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>元旦</t>
+  </si>
+  <si>
+    <t>2018-1-1</t>
+  </si>
+  <si>
+    <t>2018-2-11</t>
+  </si>
+  <si>
+    <t>除夕</t>
+  </si>
+  <si>
+    <t>2018-2-15</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>2018-2-16</t>
+  </si>
+  <si>
+    <t>2018-2-17</t>
+  </si>
+  <si>
+    <t>2018-2-18</t>
+  </si>
+  <si>
+    <t>2018-2-19</t>
+  </si>
+  <si>
+    <t>2018-2-20</t>
+  </si>
+  <si>
+    <t>2018-2-21</t>
+  </si>
+  <si>
+    <t>2018-2-24</t>
+  </si>
+  <si>
+    <t>清明节</t>
+  </si>
+  <si>
+    <t>2018-4-5</t>
+  </si>
+  <si>
+    <t>2018-4-6</t>
+  </si>
+  <si>
+    <t>2018-4-7</t>
+  </si>
+  <si>
+    <t>2018-4-8</t>
+  </si>
+  <si>
+    <t>2018-4-28</t>
+  </si>
+  <si>
+    <t>2018-4-29</t>
+  </si>
+  <si>
+    <t>2018-4-30</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>2018-5-1</t>
+  </si>
+  <si>
+    <t>2018-6-16</t>
+  </si>
+  <si>
+    <t>2018-6-17</t>
+  </si>
+  <si>
+    <t>端午节</t>
+  </si>
+  <si>
+    <t>2018-6-18</t>
+  </si>
+  <si>
+    <t>2018-9-22</t>
+  </si>
+  <si>
+    <t>2018-9-23</t>
+  </si>
+  <si>
+    <t>中秋节</t>
+  </si>
+  <si>
+    <t>2018-9-24</t>
+  </si>
+  <si>
+    <t>2018-9-29</t>
+  </si>
+  <si>
+    <t>2018-9-30</t>
+  </si>
+  <si>
+    <t>国庆节</t>
+  </si>
+  <si>
+    <t>2018-10-1</t>
+  </si>
+  <si>
+    <t>2018-10-2</t>
+  </si>
+  <si>
+    <t>2018-10-3</t>
+  </si>
+  <si>
+    <t>2018-10-4</t>
+  </si>
+  <si>
+    <t>2018-10-5</t>
+  </si>
+  <si>
+    <t>2018-10-6</t>
+  </si>
+  <si>
+    <t>2018-10-7</t>
+  </si>
+  <si>
+    <t>2019-1-1</t>
+  </si>
+  <si>
+    <t>2019-2-2</t>
+  </si>
+  <si>
+    <t>2019-2-3</t>
+  </si>
+  <si>
+    <t>2019-2-4</t>
+  </si>
+  <si>
+    <t>2019-2-5</t>
+  </si>
+  <si>
+    <t>2019-2-6</t>
+  </si>
+  <si>
+    <t>2019-2-7</t>
+  </si>
+  <si>
+    <t>2019-2-8</t>
+  </si>
+  <si>
+    <t>2019-2-9</t>
+  </si>
+  <si>
+    <t>2019-2-10</t>
+  </si>
+  <si>
+    <t>2019-4-5</t>
+  </si>
+  <si>
+    <t>2019-4-6</t>
+  </si>
+  <si>
+    <t>2019-4-7</t>
+  </si>
+  <si>
+    <t>2019-4-28</t>
+  </si>
+  <si>
+    <t>2019-5-1</t>
+  </si>
+  <si>
+    <t>2019-5-2</t>
+  </si>
+  <si>
+    <t>2019-5-3</t>
+  </si>
+  <si>
+    <t>2019-5-4</t>
+  </si>
+  <si>
+    <t>2019-5-5</t>
+  </si>
+  <si>
+    <t>2019-6-7</t>
+  </si>
+  <si>
+    <t>2019-6-8</t>
+  </si>
+  <si>
+    <t>2019-6-9</t>
+  </si>
+  <si>
+    <t>2019-9-13</t>
+  </si>
+  <si>
+    <t>2019-9-14</t>
+  </si>
+  <si>
+    <t>2019-9-15</t>
+  </si>
+  <si>
+    <t>2019-9-29</t>
+  </si>
+  <si>
+    <t>2019-9-30</t>
+  </si>
+  <si>
+    <t>2019-10-1</t>
+  </si>
+  <si>
+    <t>2019-10-2</t>
+  </si>
+  <si>
+    <t>2019-10-3</t>
+  </si>
+  <si>
+    <t>2019-10-4</t>
+  </si>
+  <si>
+    <t>2019-10-5</t>
+  </si>
+  <si>
+    <t>2019-10-6</t>
+  </si>
+  <si>
+    <t>2019-10-7</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>state_machine_status</t>
+  </si>
+  <si>
+    <t>State Machine Status</t>
+  </si>
+  <si>
+    <t>状态机状态</t>
+  </si>
+  <si>
+    <t>state_machine_config</t>
+  </si>
+  <si>
+    <t>State Machine Config</t>
+  </si>
+  <si>
+    <t>状态机配置</t>
+  </si>
+  <si>
+    <t>state_machine_node</t>
+  </si>
+  <si>
+    <t>State Machine Node</t>
+  </si>
+  <si>
+    <t>状态机节点</t>
+  </si>
+  <si>
+    <t>state_machine_transform</t>
+  </si>
+  <si>
+    <t>State Machine Transform</t>
+  </si>
+  <si>
+    <t>状态机转换</t>
+  </si>
+  <si>
+    <t>status_category_color</t>
+  </si>
+  <si>
+    <t>Status Category Color</t>
+  </si>
+  <si>
+    <t>状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_strategy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition Strategy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件策略</t>
+    <rPh sb="0" eb="2">
+      <t>t j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <rPh sb="0" eb="2">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编码</t>
+    <rPh sb="0" eb="2">
+      <t>ye m</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_scheme_field_context</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象方案字段上下文</t>
+    <rPh sb="0" eb="1">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <rPh sb="0" eb="2">
+      <t>zi d</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_machine_draft</t>
+  </si>
+  <si>
+    <t>草稿状态</t>
+  </si>
+  <si>
+    <t>state_machine_active</t>
+  </si>
+  <si>
+    <t>活跃状态</t>
+  </si>
+  <si>
+    <t>state_machine_create</t>
+  </si>
+  <si>
+    <t>新建状态</t>
+  </si>
+  <si>
+    <t>config_condition</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>config_validator</t>
+  </si>
+  <si>
+    <t>验证器</t>
+  </si>
+  <si>
+    <t>config_trigger</t>
+  </si>
+  <si>
+    <t>触发器</t>
+  </si>
+  <si>
+    <t>config_postposition</t>
+  </si>
+  <si>
+    <t>后置功能</t>
+  </si>
+  <si>
+    <t>node_init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认初始化节点</t>
+  </si>
+  <si>
+    <t>node_start</t>
+  </si>
+  <si>
+    <t>开始节点</t>
+  </si>
+  <si>
+    <t>node_custom</t>
+  </si>
+  <si>
+    <t>自定义节点</t>
+  </si>
+  <si>
+    <t>transform_init</t>
+  </si>
+  <si>
+    <t>初始转换</t>
+  </si>
+  <si>
+    <t>transform_custom</t>
+  </si>
+  <si>
+    <t>自定义转换</t>
+  </si>
+  <si>
+    <t>transform_all</t>
+  </si>
+  <si>
+    <t>全部转换</t>
+  </si>
+  <si>
+    <t>color_status_todo</t>
+  </si>
+  <si>
+    <t>待处理状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_doing</t>
+  </si>
+  <si>
+    <t>处理中状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_done</t>
+  </si>
+  <si>
+    <t>已完成状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足所有条件</t>
+    <rPh sb="0" eb="2">
+      <t>m zu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题</t>
+    <rPh sb="0" eb="2">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题</t>
+    <rPh sb="0" eb="2">
+      <t>ce s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+    <rPh sb="0" eb="1">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile_issue_edit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>m jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（创建）</t>
+    <rPh sb="0" eb="6">
+      <t>c s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_issue_edit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题页面（编辑）</t>
+    <rPh sb="0" eb="6">
+      <t>c sm jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>quan bu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类型</t>
+    <rPh sb="0" eb="1">
+      <t>q bu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>te x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_epic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <rPh sb="0" eb="2">
+      <t>s shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <rPh sb="0" eb="2">
+      <t>gu s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <rPh sb="0" eb="2">
+      <t>que x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务</t>
+    <rPh sb="0" eb="2">
+      <t>r wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间选择器</t>
+    <rPh sb="0" eb="7">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（单行）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框（多行）</t>
+    <rPh sb="0" eb="2">
+      <t>wen ben</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（单选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <rPh sb="0" eb="2">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（需要特定加载用户）</t>
+    <rPh sb="0" eb="1">
+      <t>ren y</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="5">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择器</t>
+    <rPh sb="0" eb="1">
+      <t>ri q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptanceCritera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>benfitHypothesis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+    <rPh sb="0" eb="2">
+      <t>shi j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTrace</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <rPh sb="0" eb="2">
+      <t>g x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastUpdateDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="2">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>creationDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <rPh sb="0" eb="2">
+      <t>j b r</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告人</t>
+    <rPh sb="0" eb="2">
+      <t>bao g r</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗名称</t>
+    <rPh sb="0" eb="2">
+      <t>shi s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epicName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复的版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixVersion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的版本</t>
+    <rPh sb="0" eb="2">
+      <t>y x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>influenceVersion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <rPh sb="0" eb="2">
+      <t>biao q</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <rPh sb="0" eb="2">
+      <t>mo k</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <rPh sb="0" eb="2">
+      <t>z tai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status_id</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>报告人</t>
-  </si>
-  <si>
-    <t>reporter_id</t>
-  </si>
-  <si>
-    <t>creation_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>created_user</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>last_updated_user</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
-    <t>story_points</t>
-  </si>
-  <si>
-    <t>remain_time</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>剩余时间</t>
-  </si>
-  <si>
-    <t>remaining_time</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>epic_id</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>sprint_id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>label_id</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>component_id</t>
-  </si>
-  <si>
-    <t>fix_version</t>
-  </si>
-  <si>
-    <t>修复的版本</t>
-  </si>
-  <si>
-    <t>version_id</t>
-  </si>
-  <si>
-    <t>influence_version</t>
-  </si>
-  <si>
-    <t>影响的版本</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>agile_message</t>
-  </si>
-  <si>
-    <t>#event</t>
-  </si>
-  <si>
-    <t>#notice_type</t>
-  </si>
-  <si>
-    <t>notice_name</t>
-  </si>
-  <si>
-    <t>is_enable</t>
-  </si>
-  <si>
-    <t>issue_created</t>
-  </si>
-  <si>
-    <t>assigneer</t>
-  </si>
-  <si>
-    <t>当前处理人</t>
-  </si>
-  <si>
-    <t>project_owner</t>
-  </si>
-  <si>
-    <t>项目所有者</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>issue_assigneed</t>
-  </si>
-  <si>
-    <t>issue_solved</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事点</t>
+    <rPh sb="0" eb="2">
+      <t>gu shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyPoints</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估时间</t>
+    <rPh sb="0" eb="2">
+      <t>yu gu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remainingTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="2">
+      <t>miao s</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>gai yao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <rPh sb="0" eb="2">
+      <t>w t l x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issueType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_system</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#scheme_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题字段方案</t>
+    <rPh sb="0" eb="8">
+      <t>w ti</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#page_code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【创建】</t>
+    <rPh sb="0" eb="6">
+      <t>c j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷问题页面【编辑】</t>
+    <rPh sb="0" eb="6">
+      <t>bian ji</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="DejaVu Serif"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -650,11 +1829,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -677,69 +1856,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{E0E93D4D-DC33-5245-B9F4-75E128993F91}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -938,10 +2184,8 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -959,8 +2203,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +2215,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -989,8 +2232,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,8 +2257,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,8 +2282,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,8 +2307,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,8 +2332,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,8 +2357,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,8 +2382,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,8 +2407,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,8 +2432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,9 +2445,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1227,10 +2467,8 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1248,8 +2486,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,8 +2511,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,8 +2536,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,8 +2561,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,8 +2586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,8 +2611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,8 +2636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,8 +2661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,8 +2686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,8 +2711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,9 +2724,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1509,10 +2743,8 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1530,8 +2762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +2774,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1560,8 +2791,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,8 +2816,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,8 +2841,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,8 +2866,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,8 +2891,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,8 +2916,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1716,8 +2941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1742,8 +2966,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,8 +2991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,96 +3004,99 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1879,8 +3104,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -1889,24 +3115,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
-    <col min="8" max="256" width="9" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1915,7 +3140,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1924,7 +3149,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1933,7 +3158,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1942,7 +3167,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1951,7 +3176,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1960,191 +3185,372 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1">
+    </row>
+    <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+    </row>
+    <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+    </row>
+    <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s" s="5">
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2153,25 +3559,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
-    <col min="9" max="256" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2181,7 +3587,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2191,7 +3597,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2201,7 +3607,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2211,7 +3617,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2221,7 +3627,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2231,803 +3637,1704 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s" s="5">
+      <c r="D7" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1">
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F18" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1">
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1">
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1">
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="H22" t="s" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1">
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="H23" t="s" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1">
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" ht="17" customHeight="1">
+      <c r="E24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s" s="5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="1">
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1">
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" ht="17" customHeight="1">
+      <c r="E27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" ht="17" customHeight="1">
+      <c r="E28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="H29" t="s" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" ht="17" customHeight="1">
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s" s="5">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" ht="17" customHeight="1">
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="F31" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1">
+      <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="F32" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="H32" t="s" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" ht="17" customHeight="1">
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="F33" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H33" t="s" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="1">
+      <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="F34" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="H34" t="s" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" ht="17" customHeight="1">
+      <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="H35" t="s" s="5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="1">
+      <c r="E35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="H36" t="s" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="17" customHeight="1">
+      <c r="E36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="F37" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="H37" t="s" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="1">
+      <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="17" customHeight="1">
+      <c r="E38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" t="s" s="5">
-        <v>102</v>
-      </c>
-      <c r="F39" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="H39" t="s" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="17" customHeight="1">
+      <c r="E39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="F40" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s" s="5">
-        <v>106</v>
-      </c>
-      <c r="H40" t="s" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="17" customHeight="1">
+      <c r="E40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" t="s" s="5">
-        <v>108</v>
-      </c>
-      <c r="F41" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="H41" t="s" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="17" customHeight="1">
+      <c r="E41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="F42" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="H42" t="s" s="5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="17" customHeight="1">
+      <c r="E42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" t="s" s="5">
-        <v>114</v>
-      </c>
-      <c r="F43" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s" s="5">
-        <v>115</v>
-      </c>
-      <c r="H43" t="s" s="5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="17" customHeight="1">
+      <c r="E43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="F44" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" ht="17" customHeight="1">
+      <c r="E44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="F45" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="H45" t="s" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" ht="17" customHeight="1">
+      <c r="E45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="F46" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="H46" t="s" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" ht="17" customHeight="1">
+      <c r="E46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="F47" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s" s="5">
-        <v>124</v>
-      </c>
-      <c r="H47" t="s" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" ht="17" customHeight="1">
+      <c r="E47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" t="s" s="5">
-        <v>126</v>
-      </c>
-      <c r="F48" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="H48" t="s" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" ht="17" customHeight="1">
+      <c r="E48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="F49" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s" s="5">
-        <v>130</v>
-      </c>
-      <c r="H49" t="s" s="5">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" ht="17" customHeight="1">
+      <c r="E49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" t="s" s="5">
-        <v>132</v>
-      </c>
-      <c r="F50" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="H50" t="s" s="5">
-        <v>134</v>
+      <c r="E50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3035,25 +5342,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
-    <col min="9" max="256" width="9" style="7" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3063,7 +5368,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3073,7 +5378,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3083,7 +5388,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3093,7 +5398,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3103,7 +5408,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3113,335 +5418,336 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="5">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="G7" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+      <c r="D7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G8" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="E8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G10" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="H10" t="s" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+      <c r="E10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G11" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="H11" t="s" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+      <c r="E11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>150</v>
-      </c>
-      <c r="G12" t="s" s="5">
-        <v>151</v>
-      </c>
-      <c r="H12" t="s" s="5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+      <c r="E12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="F13" t="s" s="5">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s" s="5">
-        <v>153</v>
-      </c>
-      <c r="H13" t="s" s="5">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="1">
+      <c r="E13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
-        <v>154</v>
-      </c>
-      <c r="F14" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G14" t="s" s="5">
-        <v>155</v>
-      </c>
-      <c r="H14" t="s" s="5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+      <c r="E14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
-        <v>157</v>
-      </c>
-      <c r="F15" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G15" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="H15" t="s" s="5">
+      <c r="E15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+      <c r="G15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G16" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="F17" t="s" s="5">
-        <v>162</v>
-      </c>
-      <c r="G17" t="s" s="5">
-        <v>163</v>
-      </c>
-      <c r="H17" t="s" s="5">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+      <c r="E17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G18" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1">
+      <c r="E18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
-        <v>167</v>
-      </c>
-      <c r="F19" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G19" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="H19" t="s" s="5">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+      <c r="E19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" t="s" s="5">
-        <v>170</v>
-      </c>
-      <c r="F20" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G20" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="H20" t="s" s="5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1">
+      <c r="E20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G21" t="s" s="5">
-        <v>174</v>
-      </c>
-      <c r="H21" t="s" s="5">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1">
+      <c r="E21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" t="s" s="5">
-        <v>176</v>
-      </c>
-      <c r="F22" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G22" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="H22" t="s" s="5">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1">
+      <c r="E22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" t="s" s="5">
-        <v>179</v>
-      </c>
-      <c r="F23" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="H23" t="s" s="5">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="1">
+      <c r="E23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="G24" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="H24" t="s" s="5">
-        <v>39</v>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3449,25 +5755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
-    <col min="9" max="256" width="9" style="8" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3477,7 +5779,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3487,7 +5789,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3497,7 +5799,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3507,7 +5809,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3517,7 +5819,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3527,248 +5829,2785 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>184</v>
-      </c>
-      <c r="G7" t="s" s="5">
-        <v>185</v>
-      </c>
-      <c r="H7" t="s" s="5">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1">
+      <c r="D7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>188</v>
-      </c>
-      <c r="G8" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="E8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="F9" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="E9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>190</v>
-      </c>
-      <c r="G10" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="E10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="E11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>188</v>
-      </c>
-      <c r="G12" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="E12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="F13" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="G13" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="E13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="F14" t="s" s="5">
-        <v>190</v>
-      </c>
-      <c r="G14" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="E14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="F15" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="G15" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="E15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="F16" t="s" s="5">
-        <v>188</v>
-      </c>
-      <c r="G16" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="E16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="F17" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="G17" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="E17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="F18" t="s" s="5">
-        <v>190</v>
-      </c>
-      <c r="G18" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="E18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="F19" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="G19" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="E19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" customHeight="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" customHeight="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" customHeight="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" customHeight="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483CBA0-3BCE-EF47-9364-2D6D5042D47F}">
+  <dimension ref="A1:JD35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="8" customWidth="1"/>
+    <col min="7" max="13" width="29.6640625" style="8" customWidth="1"/>
+    <col min="14" max="16" width="23.1640625" style="8" customWidth="1"/>
+    <col min="17" max="264" width="9" style="8" customWidth="1"/>
+    <col min="265" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="21" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7E80B-6FE3-DD43-B03B-F6E5416DED27}">
+  <dimension ref="D7:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="18.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA53A3E-4D4B-9545-B3F9-150BB93EDBDC}">
+  <dimension ref="D7:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="E9" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>